--- a/individual_results/avey/195.xlsx
+++ b/individual_results/avey/195.xlsx
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -594,19 +594,19 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -713,14 +713,12 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>0.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
@@ -734,18 +732,16 @@
         <v>0.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q4" t="n">
         <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>0.4</v>
@@ -776,14 +772,12 @@
         <v>0.5555555555555555</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.3571428571428571</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>0.3571428571428571</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
@@ -797,18 +791,16 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="Q5" t="n">
         <v>0.5882352941176471</v>
       </c>
       <c r="R5" t="n">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>0.3571428571428571</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>0.3571428571428571</v>
@@ -842,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0.7452525342261976</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9049495058460971</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -866,19 +858,19 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4480000065839604</v>
+        <v>0.1596969716198995</v>
       </c>
       <c r="Q6" t="n">
         <v>0.4258585191080662</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4806597679559118</v>
+        <v>0.3209627963360124</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2015151419005024</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -988,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1061,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1085,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
@@ -1131,9 +1123,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>1</v>
       </c>
@@ -1151,9 +1141,7 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
